--- a/biology/Zoologie/Appias_(genre)/Appias_(genre).xlsx
+++ b/biology/Zoologie/Appias_(genre)/Appias_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Appias est un genre de lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Pierinae.
 </t>
@@ -511,18 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été nommé par l'entomologiste allemand Jakob Hübner en 1819[1].
-L'espèce type est Papilio zelmira (Stoll).
-Synonymes
-Catophaga (Hübner, 1819)[2].
-Hiposcritia (Geyer, 1832)[3].
-Trigonia (Geyer, 1837)[4].
-Tachyris (Wallace, 1867)[5].
-Andopodum (Scudder, 1875).
-Glutophrissa (Butler, 1887)[6].
-Lade (de Nicéville, 1898)[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre a été nommé par l'entomologiste allemand Jakob Hübner en 1819.
+L'espèce type est Papilio zelmira (Stoll).</t>
         </is>
       </c>
     </row>
@@ -547,10 +553,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catophaga (Hübner, 1819).
+Hiposcritia (Geyer, 1832).
+Trigonia (Geyer, 1837).
+Tachyris (Wallace, 1867).
+Andopodum (Scudder, 1875).
+Glutophrissa (Butler, 1887).
+Lade (de Nicéville, 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Appias_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe cinq sous-genres.
 Appias (Appias).
@@ -587,7 +637,7 @@
 Appias indra vadus (Fruhstorfer, 1910)
 Appias ithome (C. et R. Felder, 1859) aux Célèbes.
 Appias lalage (Doubleday, 1842).Appias lalage lalage.
-Appias lalage durvasa (Moore, [1858]) au Népal.
+Appias lalage durvasa (Moore, ) au Népal.
 Appias lalage  mutina (Fruhstorfer, 1910) au nord du Laos et du Viêt Nam.
 Appias lalage lageloides (Crowley).
 Appias leis (Hübner, 1832) en Birmanie.
@@ -655,7 +705,7 @@
 Appias nero sulana (Fruhstorfer, 1899).
 Appias nero  tibericus (Fruhstorfer, 1910) aux Philippines.
 Appias nero  zamboanga (C. et R. Felder, 1862) aux Philippines.
-Appias nero zarinda (Boisduval, [1836]).
+Appias nero zarinda (Boisduval, ).
 Appias nero yamazakii S(onan, 1936) à Taïwan.
 Appias paulina (Cramer, 1777) au Japon, dans l'extrême sud de l'Asie, à Ceylan et en Australie.
 Il existe 14 sous-espèces
